--- a/CSD_Weekly_status.xlsx
+++ b/CSD_Weekly_status.xlsx
@@ -8,8 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1793A175-83BF-42A9-B343-621230ACF89F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="RqwoGezutJHMpU0a/+kmOVPdM84rE7xz8XxhklmpIfDUI58O1NA/rEoSVpXCOUTT3jAnYZ54C8xmvr1Z5zk9AA==" workbookSaltValue="V7eB4RGkuDJUpTKGW54FKg==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F0A481-F8CB-4ABD-8793-131934711958}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +17,7 @@
     <sheet name="week-03-04-2020" sheetId="25" r:id="rId2"/>
     <sheet name="week-10-04-2020" sheetId="26" r:id="rId3"/>
     <sheet name="week-17-04-2020" sheetId="27" r:id="rId4"/>
-    <sheet name="week-20-04-2020" sheetId="28" r:id="rId5"/>
+    <sheet name="week-24-04-2020" sheetId="28" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -2384,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49BDAE-6242-4E5C-9056-66DB9744EC62}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/CSD_Weekly_status.xlsx
+++ b/CSD_Weekly_status.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F0A481-F8CB-4ABD-8793-131934711958}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="week-27-03-2020" sheetId="24" r:id="rId1"/>
@@ -19,9 +13,9 @@
     <sheet name="week-17-04-2020" sheetId="27" r:id="rId4"/>
     <sheet name="week-24-04-2020" sheetId="28" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -314,13 +308,19 @@
   </si>
   <si>
     <t>Going through ECM KT and Learnig Spring Core concepts</t>
+  </si>
+  <si>
+    <t>Training on React JS on API concept</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -526,6 +526,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,7 +587,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -638,7 +639,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -832,30 +833,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -875,7 +876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -893,7 +894,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4">
         <v>67908</v>
@@ -909,7 +910,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="44.45" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
         <v>156137</v>
@@ -925,7 +926,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="5"/>
       <c r="B5" s="5">
         <v>186918</v>
@@ -941,7 +942,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="9"/>
       <c r="B6" s="5">
         <v>189815</v>
@@ -957,7 +958,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="9"/>
       <c r="B7" s="5">
         <v>119065</v>
@@ -973,7 +974,7 @@
       </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>154447</v>
@@ -989,7 +990,7 @@
       </c>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="117" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="14">
         <v>175816</v>
@@ -1005,7 +1006,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>185010</v>
@@ -1021,7 +1022,7 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="14"/>
       <c r="C11" s="9" t="s">
@@ -1037,7 +1038,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="45">
       <c r="A12" s="4"/>
       <c r="B12" s="17">
         <v>46011902</v>
@@ -1053,7 +1054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="45">
       <c r="A13" s="4"/>
       <c r="B13" s="17">
         <v>132584</v>
@@ -1069,7 +1070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="45">
       <c r="A14" s="4"/>
       <c r="B14" s="17"/>
       <c r="C14" s="20" t="s">
@@ -1083,7 +1084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="45">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="20" t="s">
@@ -1104,23 +1105,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="23">
         <v>43894</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4">
         <v>67908</v>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="44.45" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
         <v>156137</v>
@@ -1192,7 +1193,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="5"/>
       <c r="B5" s="5">
         <v>186918</v>
@@ -1210,7 +1211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="9"/>
       <c r="B6" s="5">
         <v>189815</v>
@@ -1226,7 +1227,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="9"/>
       <c r="B7" s="5">
         <v>119065</v>
@@ -1242,7 +1243,7 @@
       </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>154447</v>
@@ -1258,7 +1259,7 @@
       </c>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="117" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="14">
         <v>175816</v>
@@ -1276,7 +1277,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>185010</v>
@@ -1292,7 +1293,7 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="14"/>
       <c r="C11" s="9" t="s">
@@ -1308,7 +1309,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="4">
         <v>46014906</v>
@@ -1324,7 +1325,7 @@
       </c>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="4">
         <v>191221</v>
@@ -1340,7 +1341,7 @@
       </c>
       <c r="F13" s="19"/>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="30">
       <c r="A14" s="9"/>
       <c r="B14" s="4"/>
       <c r="C14" s="8" t="s">
@@ -1354,7 +1355,7 @@
       </c>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="24">
         <v>151152</v>
@@ -1370,7 +1371,7 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9" t="s">
@@ -1384,7 +1385,7 @@
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="45">
       <c r="A17" s="4"/>
       <c r="B17" s="17">
         <v>46011902</v>
@@ -1400,7 +1401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="45">
       <c r="A18" s="4"/>
       <c r="B18" s="17">
         <v>132584</v>
@@ -1416,7 +1417,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="45">
       <c r="A19" s="4"/>
       <c r="B19" s="17"/>
       <c r="C19" s="20" t="s">
@@ -1430,7 +1431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="45">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="20" t="s">
@@ -1451,23 +1452,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" s="23">
         <v>43894</v>
       </c>
@@ -1505,7 +1506,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4">
         <v>67908</v>
@@ -1521,7 +1522,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="44.45" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
         <v>156137</v>
@@ -1537,7 +1538,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="5"/>
       <c r="B5" s="9">
         <v>186918</v>
@@ -1555,7 +1556,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="9"/>
       <c r="B6" s="5">
         <v>189815</v>
@@ -1571,7 +1572,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="9"/>
       <c r="B7" s="5">
         <v>119065</v>
@@ -1587,7 +1588,7 @@
       </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>154447</v>
@@ -1603,7 +1604,7 @@
       </c>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="117" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="27">
         <v>175816</v>
@@ -1621,7 +1622,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>185010</v>
@@ -1637,7 +1638,7 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="14"/>
       <c r="C11" s="9" t="s">
@@ -1653,7 +1654,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="4">
         <v>46014906</v>
@@ -1669,7 +1670,7 @@
       </c>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="4">
         <v>191221</v>
@@ -1685,7 +1686,7 @@
       </c>
       <c r="F13" s="19"/>
     </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="30">
       <c r="A14" s="9"/>
       <c r="B14" s="4"/>
       <c r="C14" s="8" t="s">
@@ -1699,7 +1700,7 @@
       </c>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="24">
         <v>151152</v>
@@ -1715,7 +1716,7 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9" t="s">
@@ -1731,7 +1732,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="45">
       <c r="A17" s="4"/>
       <c r="B17" s="17">
         <v>46011902</v>
@@ -1747,7 +1748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="45">
       <c r="A18" s="4"/>
       <c r="B18" s="17">
         <v>132584</v>
@@ -1763,7 +1764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="45">
       <c r="A19" s="4"/>
       <c r="B19" s="17"/>
       <c r="C19" s="20" t="s">
@@ -1777,7 +1778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="45">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="20" t="s">
@@ -1798,23 +1799,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -1834,7 +1835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -1852,7 +1853,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1870,7 +1871,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="44.45" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1888,7 +1889,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1906,7 +1907,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1924,7 +1925,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1942,7 +1943,7 @@
       </c>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="117" customHeight="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1980,7 +1981,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2034,7 +2035,7 @@
       </c>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="30">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2052,7 +2053,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="30">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2070,7 +2071,7 @@
       </c>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2088,7 +2089,7 @@
       </c>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="30">
       <c r="A16" s="30">
         <v>15</v>
       </c>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="30">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -2126,7 +2127,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="30">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2144,7 +2145,7 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2162,7 +2163,7 @@
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -2182,7 +2183,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2200,7 +2201,7 @@
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2218,7 +2219,7 @@
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2236,7 +2237,7 @@
       </c>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="30">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2254,7 +2255,7 @@
       </c>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="30">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2272,7 +2273,7 @@
       </c>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" s="32">
         <v>25</v>
       </c>
@@ -2290,7 +2291,7 @@
       </c>
       <c r="F26" s="34"/>
     </row>
-    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="30">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -2306,7 +2307,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="30">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="30">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -2338,7 +2339,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="30">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -2354,7 +2355,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="30">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -2373,30 +2374,30 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="80uX4NdaSbXFzKpf1g8wyG1rlr1My8rnGWwacAyrHF0BgpZGMo0iZoio76qHrOxPv2CHCyR1J3z8MsgT+5FX1w==" saltValue="nVSG8NMpDW4x32uEfLgFmw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49BDAE-6242-4E5C-9056-66DB9744EC62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2416,7 +2417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -2432,7 +2433,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27.6" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2448,7 +2449,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="44.45" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2464,7 +2465,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2480,7 +2481,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2512,7 +2513,7 @@
       </c>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="117" customHeight="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2530,7 +2531,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2546,7 +2547,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2578,7 +2579,7 @@
       </c>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2594,7 +2595,7 @@
       </c>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="30">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2610,7 +2611,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2626,7 +2627,7 @@
       </c>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2642,7 +2643,7 @@
       </c>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="30">
       <c r="A16" s="30">
         <v>15</v>
       </c>
@@ -2658,7 +2659,7 @@
       </c>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="30">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="30">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2692,7 +2693,7 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2708,7 +2709,7 @@
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2742,7 +2743,7 @@
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2758,7 +2759,7 @@
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2774,7 +2775,7 @@
       </c>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="30">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2790,7 +2791,7 @@
       </c>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2806,7 +2807,7 @@
       </c>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="A26" s="32">
         <v>25</v>
       </c>
@@ -2824,23 +2825,27 @@
       </c>
       <c r="F26" s="34"/>
     </row>
-    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
+    <row r="27" spans="1:6" ht="30">
+      <c r="A27" s="36">
         <v>26</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="29">
         <v>142584</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D27" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="36">
+        <v>45</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -2856,7 +2861,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="30">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -2872,7 +2877,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="30">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -2888,7 +2893,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="30">
       <c r="A31" s="9">
         <v>30</v>
       </c>
